--- a/reports/annotation_results_rede_2.xlsx
+++ b/reports/annotation_results_rede_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D07510-318A-4278-A64A-7C9D5C8011CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CC5B0-A7E7-4347-B122-939FA040B7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>iteration</t>
   </si>
@@ -92,6 +92,15 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Tempo de anotação (Img/s)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -140,6 +149,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,13 +168,13 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1304,19 +1314,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0E9F608-9F8F-4067-ACBF-968268D4C68B}" name="Tabela1" displayName="Tabela1" ref="B2:H20" totalsRowCount="1">
-  <autoFilter ref="B2:H19" xr:uid="{DCB1C659-1010-4CBB-9978-4388CEB38DCF}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D9059A50-A879-4ED2-BDFA-C4D712E5AB80}" name="iteration"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0E9F608-9F8F-4067-ACBF-968268D4C68B}" name="Tabela1" displayName="Tabela1" ref="B2:I20" totalsRowCount="1">
+  <autoFilter ref="B2:I19" xr:uid="{DCB1C659-1010-4CBB-9978-4388CEB38DCF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D9059A50-A879-4ED2-BDFA-C4D712E5AB80}" name="iteration" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{09CF3096-A106-40F0-B021-80D4AC1A5F9A}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <totalsRowFormula>SUM(Tabela1[imagens manuais])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{3DAF7199-B8A4-4231-9748-CE1C9811C247}" name="imagens não anotadas" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0BA25DC8-8FB2-41A2-AF72-A852D43C9218}" name="imagens automaticas" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DEA33ADC-B51C-4FDE-847F-F697D5667262}" name="tempo de anotação (m)" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{0BA25DC8-8FB2-41A2-AF72-A852D43C9218}" name="imagens automaticas" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(Tabela1[imagens automaticas])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DEA33ADC-B51C-4FDE-847F-F697D5667262}" name="tempo de anotação (m)" dataDxfId="5" totalsRowDxfId="0"/>
     <tableColumn id="5" xr3:uid="{AF75D8B3-C08D-44B7-B6CB-67270E61AD76}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{D42DDA13-A0BD-4D23-A233-83F8E7D5BCBB}" name="diff (%)" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{D42DDA13-A0BD-4D23-A233-83F8E7D5BCBB}" name="diff (%)" dataDxfId="4">
       <calculatedColumnFormula>Tabela1[[#This Row],[diff]]/D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{995504D8-4656-4EFC-BD9F-B3AFB8150951}" name="Tempo de anotação (Img/s)" totalsRowFunction="custom">
+      <totalsRowFormula>MEDIAN(Tabela1[Tempo de anotação (Img/s)])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1586,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V21"/>
+  <dimension ref="B1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1599,9 +1614,10 @@
     <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.08984375" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1618,25 +1634,19 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1658,6 +1668,9 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
@@ -1671,25 +1684,22 @@
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>15</v>
-      </c>
       <c r="T2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1712,43 +1722,37 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
       </c>
       <c r="M3">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="3">
+        <v>388642</v>
+      </c>
+      <c r="N3" s="7">
         <f>M3/M$5</f>
-        <v>0.32344919554925605</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>7119</v>
-      </c>
-      <c r="Q3" s="3">
-        <f>P3/P$5</f>
-        <v>0.49461543806016811</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>130576</v>
-      </c>
-      <c r="T3" s="3">
-        <f>S3/$V$3</f>
-        <v>0.32953515898072649</v>
-      </c>
-      <c r="V3">
+        <v>0.86782021137154808</v>
+      </c>
+      <c r="O3">
+        <v>7885</v>
+      </c>
+      <c r="P3" s="7">
+        <f>O3/O$5</f>
+        <v>0.78834233153369326</v>
+      </c>
+      <c r="Q3">
         <v>396243</v>
       </c>
+      <c r="R3" s="7">
+        <f>Q3/$T$3</f>
+        <v>0.86637382531845952</v>
+      </c>
+      <c r="T3">
+        <v>457358</v>
+      </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1759,8 +1763,8 @@
         <v>46204</v>
       </c>
       <c r="E4" s="2">
-        <f>D3-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>434692</v>
+        <f>D3-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>342284</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -1780,34 +1784,28 @@
         <v>11</v>
       </c>
       <c r="M4">
-        <v>258232</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N8" si="0">M4/M$5</f>
-        <v>0.67655080445074389</v>
-      </c>
-      <c r="O4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4">
-        <v>7274</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q5" si="1">P4/P$5</f>
-        <v>0.50538456193983183</v>
-      </c>
-      <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4">
-        <v>265506</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:T5" si="2">S4/$V$3</f>
-        <v>0.67005852469318072</v>
+        <v>59195</v>
+      </c>
+      <c r="N4" s="7">
+        <f>M4/M$5</f>
+        <v>0.13217978862845187</v>
+      </c>
+      <c r="O4">
+        <v>2117</v>
+      </c>
+      <c r="P4" s="7">
+        <f>O4/O$5</f>
+        <v>0.21165766846630674</v>
+      </c>
+      <c r="Q4">
+        <v>61115</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" ref="R4:R5" si="0">Q4/$T$3</f>
+        <v>0.1336261746815405</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1818,8 +1816,8 @@
         <v>39770</v>
       </c>
       <c r="E5" s="2">
-        <f>D4-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>85512</v>
+        <f>D4-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>5972</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2">
@@ -1837,37 +1835,28 @@
         <v>12</v>
       </c>
       <c r="M5">
-        <f>SUM(M3:M4)</f>
-        <v>381689</v>
-      </c>
-      <c r="N5" s="3">
+        <v>447837</v>
+      </c>
+      <c r="N5" s="7">
+        <f>M5/M$5</f>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>10002</v>
+      </c>
+      <c r="P5" s="7">
+        <f>O5/O$5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>457358</v>
+      </c>
+      <c r="R5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5">
-        <f>SUM(P3:P4)</f>
-        <v>14393</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5">
-        <f>SUM(S3:S4)</f>
-        <v>396082</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99959368367390722</v>
-      </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1878,8 +1867,8 @@
         <v>33963</v>
       </c>
       <c r="E6" s="2">
-        <f>D5-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>73336</v>
+        <f>D5-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>5410</v>
       </c>
       <c r="F6" s="1">
         <v>13.6</v>
@@ -1892,44 +1881,42 @@
         <f>Tabela1[[#This Row],[diff]]/D5</f>
         <v>0.14601458385717878</v>
       </c>
+      <c r="I6">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.48651960784313725</v>
+      </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6">
-        <v>388642</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" ref="N6:N7" si="3">M6/M$8</f>
-        <v>0.86782021137154808</v>
-      </c>
-      <c r="O6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>7885</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q7" si="4">P6/P$8</f>
-        <v>0.78834233153369326</v>
-      </c>
-      <c r="R6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6">
+        <v>123457</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:N7" si="1">M6/M$8</f>
+        <v>0.32344919554925605</v>
+      </c>
+      <c r="O6">
+        <v>7119</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ref="P6:P7" si="2">O6/O$8</f>
+        <v>0.49461543806016811</v>
+      </c>
+      <c r="Q6">
+        <v>130576</v>
+      </c>
+      <c r="R6" s="7">
+        <f>Q6/$T$6</f>
+        <v>0.32953515898072649</v>
+      </c>
+      <c r="T6">
         <v>396243</v>
       </c>
-      <c r="T6" s="3">
-        <f>S6/$V$6</f>
-        <v>0.86637382531845952</v>
-      </c>
-      <c r="V6">
-        <v>457358</v>
-      </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1940,8 +1927,8 @@
         <v>24170</v>
       </c>
       <c r="E7" s="2">
-        <f>D6-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>57795</v>
+        <f>D6-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>9455</v>
       </c>
       <c r="F7" s="1">
         <v>8</v>
@@ -1954,6 +1941,10 @@
         <f>Tabela1[[#This Row],[diff]]/D6</f>
         <v>0.28834319700850924</v>
       </c>
+      <c r="I7">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.70416666666666672</v>
+      </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
@@ -1961,34 +1952,28 @@
         <v>11</v>
       </c>
       <c r="M7">
-        <v>59195</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.13217978862845187</v>
-      </c>
-      <c r="O7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7">
-        <v>2117</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="4"/>
-        <v>0.21165766846630674</v>
-      </c>
-      <c r="R7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7">
-        <v>61115</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" ref="T7:T8" si="5">S7/$V$6</f>
-        <v>0.1336261746815405</v>
+        <v>258232</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.67655080445074389</v>
+      </c>
+      <c r="O7">
+        <v>7274</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.50538456193983183</v>
+      </c>
+      <c r="Q7">
+        <v>265506</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" ref="R7:R8" si="3">Q7/$T$6</f>
+        <v>0.67005852469318072</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1999,8 +1984,8 @@
         <v>19393</v>
       </c>
       <c r="E8" s="2">
-        <f>D7-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>43322</v>
+        <f>D7-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>4536</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -2013,6 +1998,10 @@
         <f>Tabela1[[#This Row],[diff]]/D7</f>
         <v>0.19764170459246999</v>
       </c>
+      <c r="I8">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.57380952380952388</v>
+      </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
@@ -2020,34 +2009,31 @@
         <v>12</v>
       </c>
       <c r="M8">
-        <v>447837</v>
-      </c>
-      <c r="N8" s="3">
+        <f>SUM(M6:M7)</f>
+        <v>381689</v>
+      </c>
+      <c r="N8" s="7">
         <f>M8/M$8</f>
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8">
-        <v>10002</v>
-      </c>
-      <c r="Q8" s="3">
-        <f>P8/P$8</f>
+      <c r="O8">
+        <f>SUM(O6:O7)</f>
+        <v>14393</v>
+      </c>
+      <c r="P8" s="7">
+        <f>O8/O$8</f>
         <v>1</v>
       </c>
-      <c r="R8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8">
-        <v>457358</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="Q8">
+        <f>SUM(Q6:Q7)</f>
+        <v>396082</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.99959368367390722</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2058,8 +2044,8 @@
         <v>15260</v>
       </c>
       <c r="E9" s="2">
-        <f>D8-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>34460</v>
+        <f>D8-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>3940</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2">
@@ -2071,7 +2057,7 @@
         <v>0.21311813540968391</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2082,8 +2068,8 @@
         <v>13072</v>
       </c>
       <c r="E10" s="2">
-        <f>D9-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>28181</v>
+        <f>D9-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>2037</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -2096,8 +2082,15 @@
         <f>Tabela1[[#This Row],[diff]]/D9</f>
         <v>0.14338138925294888</v>
       </c>
+      <c r="I10">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2108,8 +2101,8 @@
         <v>11356</v>
       </c>
       <c r="E11" s="2">
-        <f>D10-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>24298</v>
+        <f>D10-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>1586</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2">
@@ -2120,8 +2113,11 @@
         <f>Tabela1[[#This Row],[diff]]/D10</f>
         <v>0.13127294981640147</v>
       </c>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2132,8 +2128,8 @@
         <v>9483</v>
       </c>
       <c r="E12" s="2">
-        <f>D11-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>20727</v>
+        <f>D11-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>1761</v>
       </c>
       <c r="F12" s="1">
         <f>2+20/60</f>
@@ -2147,8 +2143,15 @@
         <f>Tabela1[[#This Row],[diff]]/D11</f>
         <v>0.16493483620993307</v>
       </c>
+      <c r="I12">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2159,8 +2162,8 @@
         <v>8041</v>
       </c>
       <c r="E13" s="2">
-        <f>D12-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>17424</v>
+        <f>D12-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>1342</v>
       </c>
       <c r="F13" s="1">
         <f>3+11/60</f>
@@ -2174,8 +2177,12 @@
         <f>Tabela1[[#This Row],[diff]]/D12</f>
         <v>0.15206158388695559</v>
       </c>
+      <c r="I13">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.52356020942408377</v>
+      </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2186,8 +2193,8 @@
         <v>6594</v>
       </c>
       <c r="E14" s="2">
-        <f>D13-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>14535</v>
+        <f>D13-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>1347</v>
       </c>
       <c r="F14" s="1">
         <f>1+37/60</f>
@@ -2201,8 +2208,12 @@
         <f>Tabela1[[#This Row],[diff]]/D13</f>
         <v>0.17995274219624424</v>
       </c>
+      <c r="I14">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>1.0309278350515465</v>
+      </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2213,8 +2224,8 @@
         <v>6088</v>
       </c>
       <c r="E15" s="2">
-        <f>D14-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>12582</v>
+        <f>D14-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>406</v>
       </c>
       <c r="F15" s="1">
         <f>3+9/60</f>
@@ -2228,8 +2239,12 @@
         <f>Tabela1[[#This Row],[diff]]/D14</f>
         <v>7.6736427054898387E-2</v>
       </c>
+      <c r="I15">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.52910052910052907</v>
+      </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2240,8 +2255,8 @@
         <v>5510</v>
       </c>
       <c r="E16" s="2">
-        <f>D15-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>11498</v>
+        <f>D15-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>478</v>
       </c>
       <c r="F16" s="1">
         <f>1+47/60</f>
@@ -2255,8 +2270,12 @@
         <f>Tabela1[[#This Row],[diff]]/D15</f>
         <v>9.4940867279894869E-2</v>
       </c>
+      <c r="I16">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.93457943925233655</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2267,8 +2286,8 @@
         <v>5029</v>
       </c>
       <c r="E17" s="2">
-        <f>D16-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>10439</v>
+        <f>D16-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>381</v>
       </c>
       <c r="F17" s="1">
         <f>2+21/60</f>
@@ -2282,8 +2301,12 @@
         <f>Tabela1[[#This Row],[diff]]/D16</f>
         <v>8.7295825771324859E-2</v>
       </c>
+      <c r="I17">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.70921985815602839</v>
+      </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2294,8 +2317,8 @@
         <v>4157</v>
       </c>
       <c r="E18" s="2">
-        <f>D17-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>9086</v>
+        <f>D17-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <v>772</v>
       </c>
       <c r="F18" s="1">
         <f>2+37/60</f>
@@ -2309,8 +2332,12 @@
         <f>Tabela1[[#This Row],[diff]]/D17</f>
         <v>0.1733943129846888</v>
       </c>
+      <c r="I18">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>0.63694267515923575</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2321,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f>D18-Tabela1[[#This Row],[imagens manuais]]+Tabela1[[#This Row],[imagens não anotadas]]</f>
+        <f>D18-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
         <v>0</v>
       </c>
       <c r="F19" s="1">
@@ -2334,21 +2361,49 @@
       <c r="H19" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I19">
+        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
+        <v>1.0188725490196078</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
       <c r="C20" s="2">
         <f>SUM(Tabela1[imagens manuais])</f>
         <v>14536</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <f>SUM(Tabela1[imagens automaticas])</f>
+        <v>381707</v>
+      </c>
       <c r="F20" s="1"/>
+      <c r="I20">
+        <f>MEDIAN(Tabela1[Tempo de anotação (Img/s)])</f>
+        <v>0.70669326241134756</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <f>Tabela1[[#Totals],[imagens manuais]]/$D$3</f>
+        <v>3.6684559727238081E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f>Tabela1[[#Totals],[imagens não anotadas]]/$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f>Tabela1[[#Totals],[imagens automaticas]]/$D$3</f>
+        <v>0.96331544027276195</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/annotation_results_rede_2.xlsx
+++ b/reports/annotation_results_rede_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CC5B0-A7E7-4347-B122-939FA040B7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC6ED4-59A5-4D79-BE5C-B5613CED1BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>iteration</t>
-  </si>
-  <si>
-    <t>imagens manuais</t>
-  </si>
-  <si>
-    <t>imagens não anotadas</t>
   </si>
   <si>
     <t>tempo de anotação (m)</t>
@@ -60,46 +54,22 @@
     <t>-</t>
   </si>
   <si>
-    <t>imagens automaticas</t>
+    <t>auto</t>
   </si>
   <si>
-    <t>Event</t>
+    <t>manual</t>
   </si>
   <si>
-    <t>Positive</t>
+    <t>manual %</t>
   </si>
   <si>
-    <t>Negative</t>
+    <t>auto %</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>annotated %</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Automatic</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Duct</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Predecessors</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Tempo de anotação (Img/s)</t>
+    <t>unlabeled</t>
   </si>
 </sst>
 </file>
@@ -135,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -149,14 +119,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -171,10 +149,19 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -362,7 +349,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$3:$D$19</c:f>
+              <c:f>Plan1!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1314,24 +1301,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0E9F608-9F8F-4067-ACBF-968268D4C68B}" name="Tabela1" displayName="Tabela1" ref="B2:I20" totalsRowCount="1">
-  <autoFilter ref="B2:I19" xr:uid="{DCB1C659-1010-4CBB-9978-4388CEB38DCF}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D9059A50-A879-4ED2-BDFA-C4D712E5AB80}" name="iteration" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{09CF3096-A106-40F0-B021-80D4AC1A5F9A}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(Tabela1[imagens manuais])</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0E9F608-9F8F-4067-ACBF-968268D4C68B}" name="Tabela1" displayName="Tabela1" ref="B2:K20" totalsRowCount="1">
+  <autoFilter ref="B2:K19" xr:uid="{DCB1C659-1010-4CBB-9978-4388CEB38DCF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D9059A50-A879-4ED2-BDFA-C4D712E5AB80}" name="iteration"/>
+    <tableColumn id="2" xr3:uid="{09CF3096-A106-40F0-B021-80D4AC1A5F9A}" name="manual" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="6">
+      <totalsRowFormula>SUM(Tabela1[manual])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3DAF7199-B8A4-4231-9748-CE1C9811C247}" name="imagens não anotadas" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0BA25DC8-8FB2-41A2-AF72-A852D43C9218}" name="imagens automaticas" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(Tabela1[imagens automaticas])</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{852AAB3D-1526-4425-990D-D412C275F7D5}" name="auto" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(Tabela1[auto])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DEA33ADC-B51C-4FDE-847F-F697D5667262}" name="tempo de anotação (m)" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3DAF7199-B8A4-4231-9748-CE1C9811C247}" name="unlabeled" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DAFFD7DD-8027-4F32-9A6E-E2FB619DB547}" name="manual %" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3">
+      <calculatedColumnFormula>Tabela1[[#This Row],[manual]]/$E$3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1[manual %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{58EC89C4-6C2D-470B-99EA-846FED9A3CE2}" name="auto %" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
+      <calculatedColumnFormula>Tabela1[[#This Row],[auto]]/$E$3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1[auto %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{254AE204-8F36-496C-B52F-8815F05B730C}" name="annotated %" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+      <calculatedColumnFormula>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabela1[annotated %])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DEA33ADC-B51C-4FDE-847F-F697D5667262}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(Tabela1[tempo de anotação (m)])</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{AF75D8B3-C08D-44B7-B6CB-67270E61AD76}" name="diff"/>
-    <tableColumn id="6" xr3:uid="{D42DDA13-A0BD-4D23-A233-83F8E7D5BCBB}" name="diff (%)" dataDxfId="4">
-      <calculatedColumnFormula>Tabela1[[#This Row],[diff]]/D2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{995504D8-4656-4EFC-BD9F-B3AFB8150951}" name="Tempo de anotação (Img/s)" totalsRowFunction="custom">
-      <totalsRowFormula>MEDIAN(Tabela1[Tempo de anotação (Img/s)])</totalsRowFormula>
+    <tableColumn id="6" xr3:uid="{D42DDA13-A0BD-4D23-A233-83F8E7D5BCBB}" name="diff (%)" dataDxfId="11">
+      <calculatedColumnFormula>Tabela1[[#This Row],[diff]]/E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1601,105 +1599,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T21"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1707,52 +1662,34 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>396243</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>388642</v>
-      </c>
-      <c r="N3" s="7">
-        <f>M3/M$5</f>
-        <v>0.86782021137154808</v>
-      </c>
-      <c r="O3">
-        <v>7885</v>
-      </c>
-      <c r="P3" s="7">
-        <f>O3/O$5</f>
-        <v>0.78834233153369326</v>
-      </c>
-      <c r="Q3">
-        <v>396243</v>
-      </c>
-      <c r="R3" s="7">
-        <f>Q3/$T$3</f>
-        <v>0.86637382531845952</v>
-      </c>
-      <c r="T3">
-        <v>457358</v>
+      <c r="G3" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1760,52 +1697,36 @@
         <v>7755</v>
       </c>
       <c r="D4" s="2">
+        <v>342259</v>
+      </c>
+      <c r="E4" s="2">
         <v>46204</v>
       </c>
-      <c r="E4" s="2">
-        <f>D3-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>342284</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2">
-        <f>D3-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="F4" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>1.9571323657452625E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>0.86376036926835298</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>0.8833316929258056</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <f>E3-Tabela1[[#This Row],[unlabeled]]</f>
         <v>350039</v>
       </c>
-      <c r="H4" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D3</f>
+      <c r="K4" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E3</f>
         <v>0.88339478552302497</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>59195</v>
-      </c>
-      <c r="N4" s="7">
-        <f>M4/M$5</f>
-        <v>0.13217978862845187</v>
-      </c>
-      <c r="O4">
-        <v>2117</v>
-      </c>
-      <c r="P4" s="7">
-        <f>O4/O$5</f>
-        <v>0.21165766846630674</v>
-      </c>
-      <c r="Q4">
-        <v>61115</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" ref="R4:R5" si="0">Q4/$T$3</f>
-        <v>0.1336261746815405</v>
-      </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1813,50 +1734,34 @@
         <v>462</v>
       </c>
       <c r="D5" s="2">
+        <v>5973</v>
+      </c>
+      <c r="E5" s="2">
         <v>39770</v>
       </c>
-      <c r="E5" s="2">
-        <f>D4-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>5972</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2">
-        <f>D4-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="F5" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>1.1659511966141988E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>1.5074083327654999E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.6240034524269198E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
+        <f>E4-Tabela1[[#This Row],[unlabeled]]</f>
         <v>6434</v>
       </c>
-      <c r="H5" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D4</f>
+      <c r="K5" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E4</f>
         <v>0.13925201281274349</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>447837</v>
-      </c>
-      <c r="N5" s="7">
-        <f>M5/M$5</f>
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>10002</v>
-      </c>
-      <c r="P5" s="7">
-        <f>O5/O$5</f>
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>457358</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1864,59 +1769,36 @@
         <v>397</v>
       </c>
       <c r="D6" s="2">
+        <v>5410</v>
+      </c>
+      <c r="E6" s="2">
         <v>33963</v>
       </c>
-      <c r="E6" s="2">
-        <f>D5-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>5410</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>1.001910443843803E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>1.3653238038274493E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.4655148482118296E-2</v>
+      </c>
+      <c r="I6" s="1">
         <v>13.6</v>
       </c>
-      <c r="G6" s="2">
-        <f>D5-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J6" s="2">
+        <f>E5-Tabela1[[#This Row],[unlabeled]]</f>
         <v>5807</v>
       </c>
-      <c r="H6" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D5</f>
+      <c r="K6" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E5</f>
         <v>0.14601458385717878</v>
       </c>
-      <c r="I6">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.48651960784313725</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>123457</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" ref="N6:N7" si="1">M6/M$8</f>
-        <v>0.32344919554925605</v>
-      </c>
-      <c r="O6">
-        <v>7119</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" ref="P6:P7" si="2">O6/O$8</f>
-        <v>0.49461543806016811</v>
-      </c>
-      <c r="Q6">
-        <v>130576</v>
-      </c>
-      <c r="R6" s="7">
-        <f>Q6/$T$6</f>
-        <v>0.32953515898072649</v>
-      </c>
-      <c r="T6">
-        <v>396243</v>
-      </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1924,56 +1806,36 @@
         <v>338</v>
       </c>
       <c r="D7" s="2">
+        <v>9459</v>
+      </c>
+      <c r="E7" s="2">
         <v>24170</v>
       </c>
-      <c r="E7" s="2">
-        <f>D6-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>9455</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>8.5301191440605888E-4</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>2.3871715083925774E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>2.4724726998331833E-2</v>
+      </c>
+      <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
-        <f>D6-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J7" s="2">
+        <f>E6-Tabela1[[#This Row],[unlabeled]]</f>
         <v>9793</v>
       </c>
-      <c r="H7" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D6</f>
+      <c r="K7" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E6</f>
         <v>0.28834319700850924</v>
       </c>
-      <c r="I7">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.70416666666666672</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7">
-        <v>258232</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="1"/>
-        <v>0.67655080445074389</v>
-      </c>
-      <c r="O7">
-        <v>7274</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.50538456193983183</v>
-      </c>
-      <c r="Q7">
-        <v>265506</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" ref="R7:R8" si="3">Q7/$T$6</f>
-        <v>0.67005852469318072</v>
-      </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1981,59 +1843,36 @@
         <v>241</v>
       </c>
       <c r="D8" s="2">
+        <v>4586</v>
+      </c>
+      <c r="E8" s="2">
         <v>19393</v>
       </c>
-      <c r="E8" s="2">
-        <f>D7-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>4536</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>6.0821263719485266E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>1.1573706033923627E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.218191867111848E-2</v>
+      </c>
+      <c r="I8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
-        <f>D7-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J8" s="2">
+        <f>E7-Tabela1[[#This Row],[unlabeled]]</f>
         <v>4777</v>
       </c>
-      <c r="H8" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D7</f>
+      <c r="K8" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E7</f>
         <v>0.19764170459246999</v>
       </c>
-      <c r="I8">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.57380952380952388</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <f>SUM(M6:M7)</f>
-        <v>381689</v>
-      </c>
-      <c r="N8" s="7">
-        <f>M8/M$8</f>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f>SUM(O6:O7)</f>
-        <v>14393</v>
-      </c>
-      <c r="P8" s="7">
-        <f>O8/O$8</f>
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f>SUM(Q6:Q7)</f>
-        <v>396082</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99959368367390722</v>
-      </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2041,23 +1880,34 @@
         <v>193</v>
       </c>
       <c r="D9" s="2">
+        <v>3890</v>
+      </c>
+      <c r="E9" s="2">
         <v>15260</v>
       </c>
-      <c r="E9" s="2">
-        <f>D8-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>3940</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2">
-        <f>D8-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="F9" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>4.8707485053363716E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>9.8172081273360037E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.0304282977869641E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2">
+        <f>E8-Tabela1[[#This Row],[unlabeled]]</f>
         <v>4133</v>
       </c>
-      <c r="H9" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D8</f>
+      <c r="K9" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E8</f>
         <v>0.21311813540968391</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2065,32 +1915,36 @@
         <v>151</v>
       </c>
       <c r="D10" s="2">
+        <v>2037</v>
+      </c>
+      <c r="E10" s="2">
         <v>13072</v>
       </c>
-      <c r="E10" s="2">
-        <f>D9-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>2037</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>3.8107928720507368E-4</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>5.140784821435331E-3</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>5.5218641086404053E-3</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="2">
-        <f>D9-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J10" s="2">
+        <f>E9-Tabela1[[#This Row],[unlabeled]]</f>
         <v>2188</v>
       </c>
-      <c r="H10" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D9</f>
+      <c r="K10" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E9</f>
         <v>0.14338138925294888</v>
       </c>
-      <c r="I10">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.83888888888888891</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2098,26 +1952,34 @@
         <v>130</v>
       </c>
       <c r="D11" s="2">
+        <v>1586</v>
+      </c>
+      <c r="E11" s="2">
         <v>11356</v>
       </c>
-      <c r="E11" s="2">
-        <f>D10-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>1586</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2">
-        <f>D10-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="F11" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>3.2808150554079188E-4</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>4.0025943675976615E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>4.330675873138453E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2">
+        <f>E10-Tabela1[[#This Row],[unlabeled]]</f>
         <v>1716</v>
       </c>
-      <c r="H11" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D10</f>
+      <c r="K11" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E10</f>
         <v>0.13127294981640147</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2125,33 +1987,37 @@
         <v>112</v>
       </c>
       <c r="D12" s="2">
+        <v>1761</v>
+      </c>
+      <c r="E12" s="2">
         <v>9483</v>
       </c>
-      <c r="E12" s="2">
-        <f>D11-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>1761</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.8265483554283611E-4</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>4.4442425481333427E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>4.7268973836761784E-3</v>
+      </c>
+      <c r="I12" s="1">
         <f>2+20/60</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G12" s="2">
-        <f>D11-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J12" s="2">
+        <f>E11-Tabela1[[#This Row],[unlabeled]]</f>
         <v>1873</v>
       </c>
-      <c r="H12" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D11</f>
+      <c r="K12" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E11</f>
         <v>0.16493483620993307</v>
       </c>
-      <c r="I12">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.8</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2159,30 +2025,37 @@
         <v>100</v>
       </c>
       <c r="D13" s="2">
+        <v>1342</v>
+      </c>
+      <c r="E13" s="2">
         <v>8041</v>
       </c>
-      <c r="E13" s="2">
-        <f>D12-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>1342</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.523703888775322E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>3.3868106187364823E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>3.6391810076140145E-3</v>
+      </c>
+      <c r="I13" s="1">
         <f>3+11/60</f>
         <v>3.1833333333333331</v>
       </c>
-      <c r="G13" s="2">
-        <f>D12-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J13" s="2">
+        <f>E12-Tabela1[[#This Row],[unlabeled]]</f>
         <v>1442</v>
       </c>
-      <c r="H13" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D12</f>
+      <c r="K13" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E12</f>
         <v>0.15206158388695559</v>
       </c>
-      <c r="I13">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.52356020942408377</v>
-      </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2190,30 +2063,37 @@
         <v>100</v>
       </c>
       <c r="D14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E14" s="2">
         <v>6594</v>
       </c>
-      <c r="E14" s="2">
-        <f>D13-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>1347</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.523703888775322E-4</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>3.3994291381803589E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>3.6517995270578911E-3</v>
+      </c>
+      <c r="I14" s="1">
         <f>1+37/60</f>
         <v>1.6166666666666667</v>
       </c>
-      <c r="G14" s="2">
-        <f>D13-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J14" s="2">
+        <f>E13-Tabela1[[#This Row],[unlabeled]]</f>
         <v>1447</v>
       </c>
-      <c r="H14" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D13</f>
+      <c r="K14" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E13</f>
         <v>0.17995274219624424</v>
       </c>
-      <c r="I14">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>1.0309278350515465</v>
-      </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2221,30 +2101,37 @@
         <v>100</v>
       </c>
       <c r="D15" s="2">
+        <v>406</v>
+      </c>
+      <c r="E15" s="2">
         <v>6088</v>
       </c>
-      <c r="E15" s="2">
-        <f>D14-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>406</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.523703888775322E-4</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>1.0246237788427807E-3</v>
+      </c>
+      <c r="H15" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.2769941677203129E-3</v>
+      </c>
+      <c r="I15" s="1">
         <f>3+9/60</f>
         <v>3.15</v>
       </c>
-      <c r="G15" s="2">
-        <f>D14-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J15" s="2">
+        <f>E14-Tabela1[[#This Row],[unlabeled]]</f>
         <v>506</v>
       </c>
-      <c r="H15" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D14</f>
+      <c r="K15" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E14</f>
         <v>7.6736427054898387E-2</v>
       </c>
-      <c r="I15">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.52910052910052907</v>
-      </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2252,30 +2139,37 @@
         <v>100</v>
       </c>
       <c r="D16" s="2">
+        <v>479</v>
+      </c>
+      <c r="E16" s="2">
         <v>5510</v>
       </c>
-      <c r="E16" s="2">
-        <f>D15-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>478</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.523703888775322E-4</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>1.2088541627233794E-3</v>
+      </c>
+      <c r="H16" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.4612245516009115E-3</v>
+      </c>
+      <c r="I16" s="1">
         <f>1+47/60</f>
         <v>1.7833333333333332</v>
       </c>
-      <c r="G16" s="2">
-        <f>D15-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J16" s="2">
+        <f>E15-Tabela1[[#This Row],[unlabeled]]</f>
         <v>578</v>
       </c>
-      <c r="H16" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D15</f>
+      <c r="K16" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E15</f>
         <v>9.4940867279894869E-2</v>
       </c>
-      <c r="I16">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.93457943925233655</v>
-      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2283,30 +2177,37 @@
         <v>100</v>
       </c>
       <c r="D17" s="2">
+        <v>381</v>
+      </c>
+      <c r="E17" s="2">
         <v>5029</v>
       </c>
-      <c r="E17" s="2">
-        <f>D16-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>381</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.523703888775322E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>9.6153118162339781E-4</v>
+      </c>
+      <c r="H17" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.21390157050093E-3</v>
+      </c>
+      <c r="I17" s="1">
         <f>2+21/60</f>
         <v>2.35</v>
       </c>
-      <c r="G17" s="2">
-        <f>D16-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J17" s="2">
+        <f>E16-Tabela1[[#This Row],[unlabeled]]</f>
         <v>481</v>
       </c>
-      <c r="H17" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D16</f>
+      <c r="K17" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E16</f>
         <v>8.7295825771324859E-2</v>
       </c>
-      <c r="I17">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.70921985815602839</v>
-      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2314,30 +2215,37 @@
         <v>100</v>
       </c>
       <c r="D18" s="2">
+        <v>773</v>
+      </c>
+      <c r="E18" s="2">
         <v>4157</v>
       </c>
-      <c r="E18" s="2">
-        <f>D17-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
-        <v>772</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>2.523703888775322E-4</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>1.950823106023324E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>2.2031934949008564E-3</v>
+      </c>
+      <c r="I18" s="1">
         <f>2+37/60</f>
         <v>2.6166666666666667</v>
       </c>
-      <c r="G18" s="2">
-        <f>D17-Tabela1[[#This Row],[imagens não anotadas]]</f>
+      <c r="J18" s="2">
+        <f>E17-Tabela1[[#This Row],[unlabeled]]</f>
         <v>872</v>
       </c>
-      <c r="H18" s="3">
-        <f>Tabela1[[#This Row],[diff]]/D17</f>
+      <c r="K18" s="3">
+        <f>Tabela1[[#This Row],[diff]]/E17</f>
         <v>0.1733943129846888</v>
       </c>
-      <c r="I18">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>0.63694267515923575</v>
-      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2348,68 +2256,63 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f>D18-Tabela1[[#This Row],[imagens manuais]]-Tabela1[[#This Row],[imagens não anotadas]]</f>
         <v>0</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
+        <f>Tabela1[[#This Row],[manual]]/$E$3</f>
+        <v>1.0491037065639015E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <f>Tabela1[[#This Row],[auto]]/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f>(Tabela1[[#This Row],[manual]]+Tabela1[[#This Row],[auto]])/$E$3</f>
+        <v>1.0491037065639015E-2</v>
+      </c>
+      <c r="I19" s="1">
         <f>68</f>
         <v>68</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <f>Tabela1[[#This Row],[imagens manuais]]/Tabela1[[#This Row],[tempo de anotação (m)]]/60</f>
-        <v>1.0188725490196078</v>
+      <c r="J19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C20" s="2">
-        <f>SUM(Tabela1[imagens manuais])</f>
+        <f>SUM(Tabela1[manual])</f>
         <v>14536</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <f>SUM(Tabela1[imagens automaticas])</f>
-        <v>381707</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="I20">
-        <f>MEDIAN(Tabela1[Tempo de anotação (Img/s)])</f>
-        <v>0.70669326241134756</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <f>Tabela1[[#Totals],[imagens manuais]]/$D$3</f>
-        <v>3.6684559727238081E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <f>Tabela1[[#Totals],[imagens não anotadas]]/$D$3</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <f>Tabela1[[#Totals],[imagens automaticas]]/$D$3</f>
-        <v>0.96331544027276195</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="D20" s="2">
+        <f>SUM(Tabela1[auto])</f>
+        <v>381689</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3">
+        <f>SUM(Tabela1[manual %])</f>
+        <v>3.6684559727238088E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <f>SUM(Tabela1[auto %])</f>
+        <v>0.96327001360276399</v>
+      </c>
+      <c r="H20" s="3">
+        <f>SUM(Tabela1[annotated %])</f>
+        <v>0.99995457333000193</v>
+      </c>
+      <c r="I20" s="1">
+        <f>SUM(Tabela1[tempo de anotação (m)])</f>
+        <v>116.63333333333333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H3 H19" calculatedColumn="1"/>
+    <ignoredError sqref="K3 K19" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
